--- a/group_membership.xlsx
+++ b/group_membership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/andre rc studies/police meta perceptions project/study 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCA4375-A260-D047-AC93-EB9E31E9F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFCA0B-41D1-694C-9927-469E9A457144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{D84C8EAA-35AF-0C4C-8258-3A46A417A19C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>domain</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Equally outgroup and ingroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -596,6 +599,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
@@ -644,6 +650,9 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -692,6 +701,9 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
@@ -740,6 +752,9 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
@@ -787,6 +802,9 @@
       </c>
       <c r="C16" t="s">
         <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
